--- a/prediction_and_selection/All_generated_SMILES_SYBA_filtration.xlsx
+++ b/prediction_and_selection/All_generated_SMILES_SYBA_filtration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Unnamed: 0.1</t>
   </si>
   <si>
-    <t>Unnamed: 0.1.1</t>
-  </si>
-  <si>
     <t>SMILES</t>
   </si>
   <si>
@@ -67,6 +64,15 @@
     <t>SYBA_score</t>
   </si>
   <si>
+    <t>CCC(=O)NCC1=CC=NN1S=2C=C(C3=CC=CC=C3F)NC=2C</t>
+  </si>
+  <si>
+    <t>CCC(=O)NCC1C(C2=N[NH1]C=C2C(C)(C)O)N=C1N</t>
+  </si>
+  <si>
+    <t>CCC(=O)NCC1=CC=NN1S=2C=C(C3=CC=CC=C3F)[NH1]N=2</t>
+  </si>
+  <si>
     <t>CC1=CC=CC(C(=O)CC2=NC(Cl)=CC3=CC=CN=C23)=C1</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>CCC(=O)NC1C=CN(C2=NC=C(C#N)C=C2C)N1CCC</t>
+  </si>
+  <si>
+    <t>CCC(=O)NC=CC(C)=NN(C1=C(Cl)C=CC=C1F)[NH1]</t>
   </si>
   <si>
     <t>CC1=CC=CC(C(=O)CC2=NC(CC=3C=COC=3)=CS2)=C1</t>
@@ -458,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,323 +522,305 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
+      <c r="E2">
+        <v>346.126360448</v>
       </c>
       <c r="F2">
-        <v>296.071640716</v>
+        <v>2.832000000000001</v>
       </c>
       <c r="G2">
-        <v>4.017020000000002</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>58.95</v>
       </c>
       <c r="K2">
-        <v>42.85</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.818708335768526</v>
       </c>
       <c r="O2">
-        <v>0.5414405053849413</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>79.23829133648032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>39.47031117376993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>279.169524912</v>
+      </c>
+      <c r="F3">
+        <v>0.1914</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>116.39</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0.6153052470298216</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>5.243034628636094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
-        <v>278.105527688</v>
-      </c>
-      <c r="G3">
-        <v>3.902320000000002</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>55.13</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0.7900670902767973</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>119.4445020041633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
+      <c r="E4">
+        <v>333.105959352</v>
       </c>
       <c r="F4">
-        <v>297.08234972</v>
+        <v>2.1302</v>
       </c>
       <c r="G4">
-        <v>4.060720000000003</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>71.31</v>
       </c>
       <c r="K4">
-        <v>43.1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.8804279028946764</v>
       </c>
       <c r="O4">
-        <v>0.6669352261258783</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>90.13432077856388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>35.55029351077668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>296.071640716</v>
       </c>
       <c r="F5">
-        <v>458.1615000680002</v>
+        <v>4.017020000000002</v>
       </c>
       <c r="G5">
-        <v>3.531100000000001</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J5">
+        <v>42.85</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>135.4</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.5414405053849413</v>
       </c>
       <c r="O5">
-        <v>0.5344799000236472</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>47.43153293091117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>79.23829133648032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>278.105527688</v>
       </c>
       <c r="F6">
-        <v>462.1586429440002</v>
+        <v>3.902320000000002</v>
       </c>
       <c r="G6">
-        <v>3.10402</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>55.13</v>
       </c>
       <c r="K6">
-        <v>114.85</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.7900670902767973</v>
       </c>
       <c r="O6">
-        <v>0.5336845994753973</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>85.0338357750508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>119.4445020041633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>297.08234972</v>
       </c>
       <c r="F7">
-        <v>396.19615426</v>
+        <v>4.060720000000003</v>
       </c>
       <c r="G7">
-        <v>3.791800000000003</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>43.1</v>
       </c>
       <c r="K7">
-        <v>73.80000000000001</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -838,354 +829,545 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.6669352261258783</v>
       </c>
       <c r="O7">
-        <v>0.743927751688566</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>7.054935207859677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>90.13432077856388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>458.1615000680002</v>
       </c>
       <c r="F8">
-        <v>280.079410256</v>
+        <v>3.531100000000001</v>
       </c>
       <c r="G8">
-        <v>2.1369</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>135.4</v>
       </c>
       <c r="K8">
-        <v>67.77000000000001</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.5344799000236472</v>
       </c>
       <c r="O8">
-        <v>0.9107552694756952</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>47.21888765905626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>47.43153293091117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>462.1586429440002</v>
       </c>
       <c r="F9">
-        <v>367.064386916</v>
+        <v>3.10402</v>
       </c>
       <c r="G9">
-        <v>1.4178</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>114.85</v>
       </c>
       <c r="K9">
-        <v>89.42999999999999</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.5336845994753973</v>
       </c>
       <c r="O9">
-        <v>0.7938557815228824</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>17.75815642285713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>85.0338357750508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>396.19615426</v>
       </c>
       <c r="F10">
-        <v>299.174610292</v>
+        <v>3.791800000000003</v>
       </c>
       <c r="G10">
-        <v>2.0747</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>73.80000000000001</v>
       </c>
       <c r="K10">
-        <v>72.26000000000001</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.743927751688566</v>
       </c>
       <c r="O10">
-        <v>0.9008729167644868</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>4.278296753875726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>7.054935207859677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>280.079410256</v>
       </c>
       <c r="F11">
-        <v>297.08234972</v>
+        <v>2.1369</v>
       </c>
       <c r="G11">
-        <v>4.060720000000003</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>67.77000000000001</v>
       </c>
       <c r="K11">
-        <v>43.1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.9107552694756952</v>
       </c>
       <c r="O11">
-        <v>0.6669352261258783</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>95.90652288855389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>47.21888765905626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>39</v>
-      </c>
-      <c r="D12">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>367.064386916</v>
       </c>
       <c r="F12">
-        <v>439.2132012920001</v>
+        <v>1.4178</v>
       </c>
       <c r="G12">
-        <v>1.323900000000001</v>
+        <v>2</v>
       </c>
       <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
       <c r="J12">
-        <v>3</v>
+        <v>89.42999999999999</v>
       </c>
       <c r="K12">
-        <v>115.09</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.7938557815228824</v>
       </c>
       <c r="O12">
-        <v>0.5365993047544944</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>6.400874001393743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>17.75815642285713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>15</v>
       </c>
       <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>299.174610292</v>
+      </c>
+      <c r="F13">
+        <v>2.0747</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.9008729167644868</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>4.278296753875726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>297.091842</v>
+      </c>
+      <c r="F14">
+        <v>2.8992</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>68.5</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0.6704466243131884</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>15.68296666498544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>297.08234972</v>
+      </c>
+      <c r="F15">
+        <v>4.060720000000003</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>43.1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0.6669352261258783</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>95.90652288855389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>439.2132012920001</v>
+      </c>
+      <c r="F16">
+        <v>1.323900000000001</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>115.09</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0.5365993047544944</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>6.400874001393743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="B17">
         <v>41</v>
       </c>
-      <c r="D13">
+      <c r="C17">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13">
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
         <v>477.2288513560001</v>
       </c>
-      <c r="G13">
+      <c r="F17">
         <v>3.0285</v>
       </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
         <v>7</v>
       </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
         <v>103.65</v>
       </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>0.5381428615928948</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>47.6736595166837</v>
       </c>
     </row>
